--- a/MyOther/ProductConfig.xlsx
+++ b/MyOther/ProductConfig.xlsx
@@ -37,19 +37,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>iPhone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ScreenLong(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ScreenShort(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkyAllen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemoryBread</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -378,7 +378,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,10 +401,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -415,10 +415,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>1280</v>
